--- a/experiment_analysis/obv_hours_qualitative/outputs/response_3-grams.xlsx
+++ b/experiment_analysis/obv_hours_qualitative/outputs/response_3-grams.xlsx
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="490">
   <si>
     <t>phrase</t>
   </si>
   <si>
-    <t>frequency (percent of responses)</t>
+    <t>count (27 total responses)</t>
   </si>
   <si>
     <t>required observation hour</t>
@@ -779,6 +779,9 @@
     <t>defining rural urban</t>
   </si>
   <si>
+    <t>count (107 total responses)</t>
+  </si>
+  <si>
     <t>hours required recommend</t>
   </si>
   <si>
@@ -842,6 +845,9 @@
     <t>recommend observation hour</t>
   </si>
   <si>
+    <t>count (193 total responses)</t>
+  </si>
+  <si>
     <t>number observation hour</t>
   </si>
   <si>
@@ -1109,6 +1115,9 @@
     <t>would make sur</t>
   </si>
   <si>
+    <t>count (197 total responses)</t>
+  </si>
+  <si>
     <t>required inpatient hour</t>
   </si>
   <si>
@@ -1289,6 +1298,9 @@
     <t>programs required inpati</t>
   </si>
   <si>
+    <t>count (251 total responses)</t>
+  </si>
+  <si>
     <t>observation hours help</t>
   </si>
   <si>
@@ -1361,6 +1373,9 @@
     <t>wanted pursue car</t>
   </si>
   <si>
+    <t>count (282 total responses)</t>
+  </si>
+  <si>
     <t>willing take stud</t>
   </si>
   <si>
@@ -1397,6 +1412,9 @@
     <t>unless know someon</t>
   </si>
   <si>
+    <t>count (222 total responses)</t>
+  </si>
+  <si>
     <t>believe observation hour</t>
   </si>
   <si>
@@ -1416,6 +1434,9 @@
   </si>
   <si>
     <t>role physical therapist</t>
+  </si>
+  <si>
+    <t>count (247 total responses)</t>
   </si>
   <si>
     <t>admission observation hour</t>
@@ -1846,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>11.11111111111111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1854,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>11.11111111111111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1862,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1870,7 +1891,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1878,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1886,7 +1907,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1894,7 +1915,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1902,7 +1923,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7.407407407407407</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1910,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1918,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1926,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1934,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1942,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1950,7 +1971,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1958,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1966,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1974,7 +1995,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1982,7 +2003,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1990,7 +2011,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1998,7 +2019,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2006,7 +2027,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2014,7 +2035,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2022,7 +2043,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2030,7 +2051,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2038,7 +2059,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2046,7 +2067,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2054,7 +2075,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2062,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2070,7 +2091,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2078,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2086,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2094,7 +2115,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2102,7 +2123,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2110,7 +2131,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2118,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2126,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2134,7 +2155,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2142,7 +2163,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2150,7 +2171,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2158,7 +2179,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2166,7 +2187,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2174,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2182,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2190,7 +2211,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2198,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2206,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2214,7 +2235,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2222,7 +2243,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2230,7 +2251,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2238,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2246,7 +2267,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2254,7 +2275,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2262,7 +2283,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2270,7 +2291,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2278,7 +2299,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2286,7 +2307,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2294,7 +2315,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2302,7 +2323,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2310,7 +2331,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2318,7 +2339,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2326,7 +2347,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2334,7 +2355,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2342,7 +2363,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2350,7 +2371,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2358,7 +2379,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2366,7 +2387,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2374,7 +2395,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2382,7 +2403,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2390,7 +2411,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2398,7 +2419,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2406,7 +2427,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2414,7 +2435,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2422,7 +2443,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2430,7 +2451,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2438,7 +2459,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2446,7 +2467,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2454,7 +2475,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2462,7 +2483,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2470,7 +2491,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2478,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2486,7 +2507,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2494,7 +2515,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2502,7 +2523,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2510,7 +2531,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2518,7 +2539,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2526,7 +2547,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2534,7 +2555,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2542,7 +2563,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2550,7 +2571,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2558,7 +2579,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2566,7 +2587,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2574,7 +2595,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2582,7 +2603,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2590,7 +2611,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2598,7 +2619,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2606,7 +2627,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2614,7 +2635,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2622,7 +2643,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2630,7 +2651,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2638,7 +2659,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2646,7 +2667,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2654,7 +2675,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2662,7 +2683,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2670,7 +2691,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2678,7 +2699,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2686,7 +2707,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2694,7 +2715,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2702,7 +2723,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2710,7 +2731,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2718,7 +2739,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2726,7 +2747,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2734,7 +2755,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2742,7 +2763,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2750,7 +2771,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2758,7 +2779,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2766,7 +2787,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2774,7 +2795,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2782,7 +2803,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2790,7 +2811,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2798,7 +2819,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2806,7 +2827,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2814,7 +2835,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2822,7 +2843,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2830,7 +2851,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2838,7 +2859,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2846,7 +2867,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2854,7 +2875,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2862,7 +2883,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2870,7 +2891,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2878,7 +2899,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2886,7 +2907,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2894,7 +2915,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2902,7 +2923,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2910,7 +2931,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2918,7 +2939,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2926,7 +2947,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2934,7 +2955,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2942,7 +2963,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2950,7 +2971,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2958,7 +2979,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2966,7 +2987,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2974,7 +2995,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2982,7 +3003,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2990,7 +3011,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2998,7 +3019,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3006,7 +3027,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3014,7 +3035,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3022,7 +3043,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3030,7 +3051,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3038,7 +3059,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3046,7 +3067,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3054,7 +3075,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3062,7 +3083,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3070,7 +3091,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3078,7 +3099,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3086,7 +3107,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3094,7 +3115,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3102,7 +3123,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3110,7 +3131,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3118,7 +3139,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3126,7 +3147,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3134,7 +3155,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3142,7 +3163,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3150,7 +3171,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3158,7 +3179,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3166,7 +3187,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3174,7 +3195,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3182,7 +3203,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3190,7 +3211,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3198,7 +3219,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3206,7 +3227,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3214,7 +3235,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3222,7 +3243,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3230,7 +3251,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3238,7 +3259,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3246,7 +3267,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3254,7 +3275,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3262,7 +3283,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3270,7 +3291,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3278,7 +3299,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3286,7 +3307,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3294,7 +3315,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3302,7 +3323,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3310,7 +3331,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3318,7 +3339,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3326,7 +3347,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3334,7 +3355,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3342,7 +3363,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3350,7 +3371,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3358,7 +3379,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3366,7 +3387,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3374,7 +3395,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3382,7 +3403,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3390,7 +3411,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3398,7 +3419,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3406,7 +3427,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3414,7 +3435,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3422,7 +3443,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3430,7 +3451,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3438,7 +3459,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3446,7 +3467,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3454,7 +3475,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3462,7 +3483,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3470,7 +3491,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3478,7 +3499,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3486,7 +3507,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3494,7 +3515,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3502,7 +3523,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3510,7 +3531,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3518,7 +3539,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3526,7 +3547,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3534,7 +3555,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3542,7 +3563,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3550,7 +3571,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3558,7 +3579,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3566,7 +3587,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3574,7 +3595,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3582,7 +3603,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3590,7 +3611,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3598,7 +3619,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3606,7 +3627,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3614,7 +3635,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3622,7 +3643,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3630,7 +3651,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3638,7 +3659,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3646,7 +3667,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3654,7 +3675,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3662,7 +3683,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3670,7 +3691,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3678,7 +3699,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3686,7 +3707,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3694,7 +3715,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3702,7 +3723,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3710,7 +3731,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3718,7 +3739,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3726,7 +3747,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3734,7 +3755,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3742,7 +3763,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3750,7 +3771,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3758,7 +3779,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3766,7 +3787,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3774,7 +3795,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3782,7 +3803,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3790,7 +3811,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3798,7 +3819,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3806,7 +3827,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3814,7 +3835,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3822,7 +3843,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3830,7 +3851,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3838,7 +3859,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>3.703703703703703</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3859,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3867,15 +3888,15 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>4.672897196261682</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B3">
-        <v>4.672897196261682</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3883,7 +3904,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>3.738317757009345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3891,7 +3912,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3.738317757009345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3899,7 +3920,7 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>3.738317757009345</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3907,79 +3928,79 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>2.803738317757009</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8">
-        <v>2.803738317757009</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B9">
-        <v>2.803738317757009</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B10">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B11">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B12">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B13">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B14">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B15">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B16">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3987,15 +4008,15 @@
         <v>110</v>
       </c>
       <c r="B17">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B18">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4003,71 +4024,71 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B20">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B21">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B22">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B23">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B25">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B27">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4075,23 +4096,23 @@
         <v>65</v>
       </c>
       <c r="B28">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30">
-        <v>1.869158878504673</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4112,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4120,31 +4141,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.699481865284974</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B3">
-        <v>3.626943005181347</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4">
-        <v>2.590673575129534</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B5">
-        <v>2.590673575129534</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4152,7 +4173,7 @@
         <v>34</v>
       </c>
       <c r="B6">
-        <v>2.590673575129534</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4160,23 +4181,23 @@
         <v>100</v>
       </c>
       <c r="B7">
-        <v>2.590673575129534</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B8">
-        <v>2.072538860103627</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B9">
-        <v>2.072538860103627</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4184,191 +4205,191 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>2.072538860103627</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B11">
-        <v>2.072538860103627</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B12">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B13">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B14">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B15">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B16">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B17">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B18">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B19">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B20">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B21">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B22">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B23">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B24">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B25">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B26">
-        <v>1.55440414507772</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B27">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B28">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B29">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B30">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B31">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B32">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B33">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4376,55 +4397,55 @@
         <v>24</v>
       </c>
       <c r="B34">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B36">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B37">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B38">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B39">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B40">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4432,15 +4453,15 @@
         <v>5</v>
       </c>
       <c r="B41">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B42">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4448,39 +4469,39 @@
         <v>127</v>
       </c>
       <c r="B43">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B44">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B45">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B46">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B47">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4488,15 +4509,15 @@
         <v>73</v>
       </c>
       <c r="B48">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B49">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4504,319 +4525,319 @@
         <v>133</v>
       </c>
       <c r="B50">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B51">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B52">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B53">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B54">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B55">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B56">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B58">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B60">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B61">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B62">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B63">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B64">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B65">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B66">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B67">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B68">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B69">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B70">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B71">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B72">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B73">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B74">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B75">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B76">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B77">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B78">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B79">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B80">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B81">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B82">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B83">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B84">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B85">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B86">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B87">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B88">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B89">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4824,111 +4845,111 @@
         <v>45</v>
       </c>
       <c r="B90">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B91">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B92">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B93">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B94">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B95">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B96">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B97">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B98">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B99">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B100">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B101">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B102">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B103">
-        <v>1.036269430051814</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4949,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4957,327 +4978,327 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>3.553299492385787</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B3">
-        <v>2.538071065989848</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B4">
-        <v>2.538071065989848</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B5">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B6">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B7">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B8">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B9">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B11">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B12">
-        <v>2.030456852791878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B13">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B14">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B15">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B16">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B17">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B18">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B19">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B20">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B21">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B22">
-        <v>1.522842639593909</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B23">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B24">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B25">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B26">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B27">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B28">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B29">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B30">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B31">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B32">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B33">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B34">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B35">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B36">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B37">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B38">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B39">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B40">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B41">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B42">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -5285,247 +5306,247 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B44">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B45">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B46">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B47">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B48">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B49">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B50">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B51">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B52">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B53">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B54">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B55">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B56">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B57">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B58">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B59">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B60">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B61">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B62">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B63">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B64">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B65">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B66">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B67">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B68">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B69">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B70">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B71">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B72">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B73">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5533,7 +5554,7 @@
         <v>100</v>
       </c>
       <c r="B74">
-        <v>1.015228426395939</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5554,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5562,239 +5583,239 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.788844621513944</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B3">
-        <v>2.788844621513944</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4">
-        <v>1.99203187250996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B5">
-        <v>1.99203187250996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B6">
-        <v>1.99203187250996</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B7">
-        <v>1.593625498007968</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B8">
-        <v>1.593625498007968</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B9">
-        <v>1.593625498007968</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B10">
-        <v>1.593625498007968</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B11">
-        <v>1.593625498007968</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B12">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B13">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B14">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B15">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B16">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B17">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B18">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B19">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B20">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B21">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B22">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B23">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B24">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B25">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B26">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B27">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B28">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B29">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B30">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B31">
-        <v>1.195219123505976</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5815,23 +5836,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B2">
-        <v>3.546099290780142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B3">
-        <v>2.127659574468085</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5839,7 +5860,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>1.773049645390071</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5847,39 +5868,39 @@
         <v>210</v>
       </c>
       <c r="B5">
-        <v>1.773049645390071</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B6">
-        <v>1.418439716312057</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B7">
-        <v>1.418439716312057</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B8">
-        <v>1.418439716312057</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B9">
-        <v>1.418439716312057</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5887,103 +5908,103 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>1.418439716312057</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B11">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B12">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B13">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B14">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B15">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B16">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B17">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B18">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B19">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B20">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B21">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B22">
-        <v>1.063829787234043</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6004,55 +6025,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B2">
-        <v>2.702702702702703</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B3">
-        <v>1.801801801801802</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B4">
-        <v>1.801801801801802</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B5">
-        <v>1.801801801801802</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B6">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B7">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6060,39 +6081,39 @@
         <v>63</v>
       </c>
       <c r="B8">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B9">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B10">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B11">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B12">
-        <v>1.351351351351351</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6113,55 +6134,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>471</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B2">
-        <v>6.882591093117409</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B3">
-        <v>5.668016194331984</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B4">
-        <v>3.643724696356275</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B5">
-        <v>2.834008097165992</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B6">
-        <v>2.834008097165992</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B7">
-        <v>2.42914979757085</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6169,175 +6190,175 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.42914979757085</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B10">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B11">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B12">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B13">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B14">
-        <v>2.024291497975709</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B15">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B16">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B17">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B18">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B19">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B20">
-        <v>1.619433198380567</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B21">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B22">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B23">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B24">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B25">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B26">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B27">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B28">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B29">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6345,79 +6366,79 @@
         <v>59</v>
       </c>
       <c r="B30">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B31">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B32">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B33">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B34">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B35">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B36">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B37">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B38">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B39">
-        <v>1.214574898785425</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
